--- a/src/main/java/org/acme/schooltimetabling/import.xlsx
+++ b/src/main/java/org/acme/schooltimetabling/import.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berta\IdeaProjects\SchoolTimeTableM\src\main\java\org\acme\schooltimetabling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A30924-159D-4488-830D-0E83DFE9A2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08488C2E-7266-4C99-84EF-2E6A0BF034C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Órák" sheetId="1" r:id="rId1"/>
+    <sheet name="Termek" sheetId="4" r:id="rId1"/>
     <sheet name="Tanárok" sheetId="2" r:id="rId2"/>
+    <sheet name="Osztályok" sheetId="5" r:id="rId3"/>
+    <sheet name="Tantárgyak" sheetId="3" r:id="rId4"/>
+    <sheet name="Órák" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
   <si>
     <t>Math</t>
   </si>
@@ -86,9 +89,6 @@
     <t>Geography</t>
   </si>
   <si>
-    <t>11th grade</t>
-  </si>
-  <si>
     <t>Room A</t>
   </si>
   <si>
@@ -138,6 +138,21 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>Készségtárgy?</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Room C</t>
+  </si>
+  <si>
+    <t>Terem</t>
+  </si>
+  <si>
+    <t>Osztályfőnök</t>
   </si>
 </sst>
 </file>
@@ -465,377 +480,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Munka2"/>
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E03BBA-E8CB-410F-AF0C-0E3981D9C212}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -848,48 +517,48 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1071,4 +740,413 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF088F42-7D59-4138-A686-44326F37011E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32D7311-8795-4C00-8877-EB01974E5EC6}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Munka2"/>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>